--- a/biology/Zoologie/Hylomys_suillus/Hylomys_suillus.xlsx
+++ b/biology/Zoologie/Hylomys_suillus/Hylomys_suillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylomys suillus, aussi appelé petit gymnure, est une espèce de petit mammifère insectivore de la famille des Erinaceidae. Elle fait partie des gymnures (Galericinae), une variante asiatique de hérissons sans piquants.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit gymnure se trouve en Birmanie, au Laos, au Vietnam, en Thaïlande, en Malaisie, sur l'île de Sumatra, de Java et de Bornéo.
 Cette espèce est très présente dans les plaines et les montagnes boisées.
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le petit gymnure mesure de 10 à 15 cm corps et tête auquel s'ajoute une courte queue de 1 à 3 cm. Il pèse de 12 à 80 g[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le petit gymnure mesure de 10 à 15 cm corps et tête auquel s'ajoute une courte queue de 1 à 3 cm. Il pèse de 12 à 80 g.
 Il ressemble à une grosse souris avec un museau long et souple. Sa fourrure est brune.
 Il se nourrit d'insectes, de vers et de fruits.
 Il se construit des nids de feuilles mortes abrités sous une roche ou un arbre déraciné.
